--- a/biology/Médecine/1394_en_santé_et_médecine/1394_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1394_en_santé_et_médecine/1394_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1394_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1394_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1394 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1394_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1394_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pierre Chartreis, licencié en médecine de l'université de Montpellier, fonde à Genève une chapellenie dédiée aux saints Côme et Damien[1].
-Fondation d'un hôpital à Chazey-en-Bugey, dans le comté de Savoie, « pour recevoir les pauvres passants[2] ».
-Situé devant l'église Saint-Pierre-ès-Liens, l'hospice d'Ervy-le-Châtel, en Champagne, est mentionné pour la première fois, dans le testament de Jean Rebours, curé de la paroisse[3].
-Fondation à Bruxelles de l'hospice des Douze-Apôtres, voué à l'accueil de treize vieillards[4].
-Le roi Charles VI, « en même temps qu'il réglement[e] l'exercice de la médecine et de la pharmacie[5] », renouvelle les privilèges accordés en 1318 par Philippe le Bel aux barbiers chirurgiens de Figeac en Quercy[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pierre Chartreis, licencié en médecine de l'université de Montpellier, fonde à Genève une chapellenie dédiée aux saints Côme et Damien.
+Fondation d'un hôpital à Chazey-en-Bugey, dans le comté de Savoie, « pour recevoir les pauvres passants ».
+Situé devant l'église Saint-Pierre-ès-Liens, l'hospice d'Ervy-le-Châtel, en Champagne, est mentionné pour la première fois, dans le testament de Jean Rebours, curé de la paroisse.
+Fondation à Bruxelles de l'hospice des Douze-Apôtres, voué à l'accueil de treize vieillards.
+Le roi Charles VI, « en même temps qu'il réglement[e] l'exercice de la médecine et de la pharmacie », renouvelle les privilèges accordés en 1318 par Philippe le Bel aux barbiers chirurgiens de Figeac en Quercy.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1394_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1394_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,16 @@
           <t>Personnalités liées à la cour de Bourgogne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Thévenin Le Bourguignon, apothicaire ; sa présence est attestée à la cour de Bourgogne[7].
-1382-1394 : fl. Jacques de Chavanges, chirurgien, sa présence est attestée à Dijon en 1383 et à la cour de Bourgogne de 1385 à 1392[7].
-1393-1394 : fl. Pierre Le Waite, barbier, établi en Flandre et en Artois ; sa présence est attestée à la cour de Bourgogne ces deux années-là[7].
-1394-1418 : fl. Jean Mernen, médecin, originaire de Saint-Malo, bachelier à Montpellier, présent à la cour de Bretagne de 1404 à 1418 et à celle de Bourgogne en 1412[7].
-1394-1419 : fl. Jean de Chalon, médecin, soigne en 1407 Jeanne de Luxembourg[8], duchesse de Brabant, femme d’Antoine de Bourgogne, dans sa dernière maladie[7].
-1394-1426 : fl. Nicolas Joliette, médecin, soigne Marguerite de Bourgogne, duchesse de Guyenne, fille de Jean Sans Peur, et Marguerite d'Autriche, fille du duc Albert IV et nièce de Marguerite de Bavière[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Thévenin Le Bourguignon, apothicaire ; sa présence est attestée à la cour de Bourgogne.
+1382-1394 : fl. Jacques de Chavanges, chirurgien, sa présence est attestée à Dijon en 1383 et à la cour de Bourgogne de 1385 à 1392.
+1393-1394 : fl. Pierre Le Waite, barbier, établi en Flandre et en Artois ; sa présence est attestée à la cour de Bourgogne ces deux années-là.
+1394-1418 : fl. Jean Mernen, médecin, originaire de Saint-Malo, bachelier à Montpellier, présent à la cour de Bretagne de 1404 à 1418 et à celle de Bourgogne en 1412.
+1394-1419 : fl. Jean de Chalon, médecin, soigne en 1407 Jeanne de Luxembourg, duchesse de Brabant, femme d’Antoine de Bourgogne, dans sa dernière maladie.
+1394-1426 : fl. Nicolas Joliette, médecin, soigne Marguerite de Bourgogne, duchesse de Guyenne, fille de Jean Sans Peur, et Marguerite d'Autriche, fille du duc Albert IV et nièce de Marguerite de Bavière.</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1394_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1394_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Basile Valentin (mort à une date inconnue), alchimiste et médecin imaginaire inventé au XVIIe siècle  par Johann Thölde et présenté par lui comme l'auteur du Currus triumphalis antimonii (« Char triomphal de l'antimoine »)[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Basile Valentin (mort à une date inconnue), alchimiste et médecin imaginaire inventé au XVIIe siècle  par Johann Thölde et présenté par lui comme l'auteur du Currus triumphalis antimonii (« Char triomphal de l'antimoine »).</t>
         </is>
       </c>
     </row>
